--- a/outputs-r202/o__Christensenellales.xlsx
+++ b/outputs-r202/o__Christensenellales.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,92 +594,92 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG093.fasta</t>
+          <t>RUG585.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001066441549353706</v>
+        <v>0.0005408427577976133</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001066441549353706</v>
+        <v>0.0005408427577976133</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001066441549353706</v>
+        <v>0.0005408427577976133</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001066441549353716</v>
+        <v>0.0005408427577976187</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001066441549353716</v>
+        <v>0.0005408427577976187</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001066441549353719</v>
+        <v>0.000540842757797622</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001066441549353719</v>
+        <v>0.000540842757797622</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001066441549353719</v>
+        <v>0.000540842757797622</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001066441549353719</v>
+        <v>0.000540842757797622</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001066441549353719</v>
+        <v>0.000540842757797622</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001066441549353719</v>
+        <v>0.000540842757797622</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001066441549353719</v>
+        <v>0.000540842757797622</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001066441549353719</v>
+        <v>0.000540842757797622</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001066441549353719</v>
+        <v>0.000540842757797622</v>
       </c>
       <c r="P2" t="n">
-        <v>0.001066441549353719</v>
+        <v>0.000540842757797622</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001066441549353719</v>
+        <v>0.000540842757797622</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001066441549353719</v>
+        <v>0.000540842757797622</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001066441549353711</v>
+        <v>0.0005408427577976204</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001066441549353711</v>
+        <v>0.0005408427577976204</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9722725197168036</v>
+        <v>0.9859380882972617</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001066441549353715</v>
+        <v>0.0005408427577976204</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001066441549353711</v>
+        <v>0.0005408427577976204</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001066441549353711</v>
+        <v>0.0005408427577976204</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001066441549353711</v>
+        <v>0.0005408427577976204</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.001066441549353711</v>
+        <v>0.0005408427577976204</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.001066441549353711</v>
+        <v>0.0005408427577976204</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.001066441549353711</v>
+        <v>0.0005408427577976216</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9722725197168036</v>
+        <v>0.9859380882972617</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
@@ -695,301 +695,99 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG343.fasta</t>
+          <t>RUG774.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.226768046099233e-14</v>
+        <v>0.0005408427563987771</v>
       </c>
       <c r="C3" t="n">
-        <v>2.226768046099233e-14</v>
+        <v>0.0005408427563987771</v>
       </c>
       <c r="D3" t="n">
-        <v>2.226768046099233e-14</v>
+        <v>0.000540842756398779</v>
       </c>
       <c r="E3" t="n">
-        <v>2.226768046099233e-14</v>
+        <v>0.0005408427563987845</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0197260894379611</v>
+        <v>0.0005408427563987845</v>
       </c>
       <c r="G3" t="n">
-        <v>2.226768046099233e-14</v>
+        <v>0.0005408427563987873</v>
       </c>
       <c r="H3" t="n">
-        <v>2.226768046099233e-14</v>
+        <v>0.0005408427563987873</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4882969672014056</v>
+        <v>0.0005408427563987873</v>
       </c>
       <c r="J3" t="n">
-        <v>2.226768046099233e-14</v>
+        <v>0.0005408427563987873</v>
       </c>
       <c r="K3" t="n">
-        <v>2.226768046099233e-14</v>
+        <v>0.0005408427563987873</v>
       </c>
       <c r="L3" t="n">
-        <v>2.226768046099233e-14</v>
+        <v>0.0005408427563987873</v>
       </c>
       <c r="M3" t="n">
-        <v>2.226768046099233e-14</v>
+        <v>0.0005408427563987873</v>
       </c>
       <c r="N3" t="n">
-        <v>2.226768046099233e-14</v>
+        <v>0.0005408427563987873</v>
       </c>
       <c r="O3" t="n">
-        <v>2.226768046099233e-14</v>
+        <v>0.0005408427563987873</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0007335966488718875</v>
+        <v>0.0005408427563987873</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.226768046099233e-14</v>
+        <v>0.0005408427563987873</v>
       </c>
       <c r="R3" t="n">
-        <v>2.226768046099233e-14</v>
+        <v>0.0005408427563987873</v>
       </c>
       <c r="S3" t="n">
-        <v>2.226768046099233e-14</v>
+        <v>0.0005408427563987809</v>
       </c>
       <c r="T3" t="n">
-        <v>2.226768046099233e-14</v>
+        <v>0.0005408427563987809</v>
       </c>
       <c r="U3" t="n">
-        <v>5.200354557773327e-12</v>
+        <v>0.9859380883336315</v>
       </c>
       <c r="V3" t="n">
-        <v>2.226768046099233e-14</v>
+        <v>0.0005408427563987809</v>
       </c>
       <c r="W3" t="n">
-        <v>0.002946379504687669</v>
+        <v>0.0005408427563987809</v>
       </c>
       <c r="X3" t="n">
-        <v>0.4882969672014057</v>
+        <v>0.0005408427563987809</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.226768046099233e-14</v>
+        <v>0.0005408427563987809</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.226768046099233e-14</v>
+        <v>0.0005408427563987809</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.226768046099233e-14</v>
+        <v>0.0005408427563987809</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.226768046099233e-14</v>
+        <v>0.0005408427563987809</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.4882969672014057</v>
+        <v>0.9859380883336315</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>f__Christensenellaceae</t>
+          <t>f__UBA1242</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
-        <is>
-          <t>f__Christensenellaceae(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>RUG585.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0005408427575036695</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0005408427575036695</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0005408427575036713</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0005408427575036753</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0005408427575036753</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0005408427575036753</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0005408427575036753</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0005408427575036753</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0005408427575036753</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.0005408427575036753</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.0005408427575036753</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.0005408427575036753</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.0005408427575036753</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.0005408427575036753</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.0005408427575036753</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.0005408427575036753</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.0005408427575036753</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.000540842757503672</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.0005408427575036727</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.9859380883049045</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.0005408427575036727</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.000540842757503672</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.000540842757503672</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.000540842757503672</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.000540842757503672</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.0005408427575036722</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.0005408427575036744</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.9859380883049045</v>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>f__UBA1242</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>f__UBA1242</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>RUG774.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.000540842756064788</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.000540842756064788</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0005408427560647897</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0005408427560647924</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0005408427560647924</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0005408427560647954</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0005408427560647954</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0005408427560647954</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0005408427560647954</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.0005408427560647954</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.0005408427560647954</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.0005408427560647954</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.0005408427560647954</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.0005408427560647954</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.0005408427560647954</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.0005408427560647954</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.0005408427560647954</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.0005408427560647939</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.0005408427560647939</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.9859380883423157</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.0005408427560647939</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.0005408427560647939</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.0005408427560647939</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.0005408427560647939</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.0005408427560647939</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.0005408427560647939</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.0005408427560647939</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.9859380883423157</v>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>f__UBA1242</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
         <is>
           <t>f__UBA1242</t>
         </is>
